--- a/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_g1.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF6F0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFDF0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF4C0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE536F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF760&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE537D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF840&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE538B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF920&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF990&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFA00&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFAE0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFC30&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFD10&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFED0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF530&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE534C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF7D0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF8B0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFA70&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFB50&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFE60&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF3E0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF5A0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF610&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE535A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF680&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFBC0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFCA0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFD80&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFF40&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE53ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D80B0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8120&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE580B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8190&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8200&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D82E0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D83C0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8430&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE583C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D84A0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8580&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8660&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE585F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D86D0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D87B0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8820&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE587B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8900&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8970&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8B30&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8E40&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8F90&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE58F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D91C0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE591C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D92A0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE59230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9310&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE593F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9D90&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE59D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA1F0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE5A180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA2D0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_g1.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957F40&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957ED0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL596991</t>
+          <t>CHEMBL207544</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>C#Cc1ncc(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1ccc2cnccc2c1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>C#Cc1ncc(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1ccc2cnccc2c1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>340.86</v>
+        <v>418.5</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>57.94</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957E60&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL1171647</t>
+          <t>CHEMBL596991</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
+          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
+          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>400.43</v>
+        <v>340.86</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -797,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>99.93000000000001</v>
+        <v>57.94</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957CA0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL1079175</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3nc4ccn5c(=O)[nH]nc5c4cc3-c3ccccc3)cc2)CCC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3nc4ccn5c(=O)[nH]nc5c4cc3-c3ccccc3)cc2)CCC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>407.48</v>
+        <v>466.54</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -856,16 +856,16 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>89.06999999999999</v>
+        <v>69.45</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957AE0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL228133</t>
+          <t>CHEMBL1171647</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Clc1ccc(C2(c3ccc(-c4ncnc5[nH]cnc45)cc3)CCNCC2)cc1</t>
+          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Clc1ccc(C2(c3ccc(-c4ncnc5[nH]cnc45)cc3)CCNCC2)cc1</t>
+          <t>CCc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>389.89</v>
+        <v>400.43</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>66.48999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957A70&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL213618</t>
+          <t>CHEMBL1079175</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CNc1nccc(-c2ccc(C(=O)N[C@H](CN)Cc3ccc(Cl)cc3Cl)s2)n1</t>
+          <t>NC1(c2ccc(-c3nc4ccn5c(=O)[nH]nc5c4cc3-c3ccccc3)cc2)CCC1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CNc1nccc(-c2ccc(C(=O)N[C@H](CN)Cc3ccc(Cl)cc3Cl)s2)n1</t>
+          <t>NC1(c2ccc(-c3nc4ccn5c(=O)[nH]nc5c4cc3-c3ccccc3)cc2)CCC1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>436.37</v>
+        <v>407.48</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
       <c r="M8" t="n">
-        <v>92.93000000000001</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957A00&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL590957</t>
+          <t>CHEMBL593375</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2Cl)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2Cl)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>393.28</v>
+        <v>493.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>103.69</v>
+        <v>144.66</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957990&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL259141</t>
+          <t>CHEMBL213618</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CNc1nccc(-c2ccc(C(=O)N[C@H](CN)Cc3ccc(Cl)cc3Cl)s2)n1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CNc1nccc(-c2ccc(C(=O)N[C@H](CN)Cc3ccc(Cl)cc3Cl)s2)n1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>217.28</v>
+        <v>436.37</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70.83</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957920&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL1096290</t>
+          <t>CHEMBL262341</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(CN3CCCC3)cc21</t>
+          <t>O=C1N=CC=C2N=C(c3ccc(CN4CCC(c5n[nH]c(-c6ccccn6)n5)CC4)cc3)C(c3ccccc3)=CC12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(CN3CCCC3)cc21</t>
+          <t>O=C1N=CC=C2N=C(c3ccc(CN4CCC(c5n[nH]c(-c6ccccn6)n5)CC4)cc3)C(c3ccccc3)=CC12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>395.47</v>
+        <v>539.64</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>119.12</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957840&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL374742</t>
+          <t>CHEMBL590957</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>c1ccc(C2(c3ccc(-c4cn[nH]c4)cc3)CCNCC2)cc1</t>
+          <t>NC1(Cc2ccc(Cl)cc2Cl)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>c1ccc(C2(c3ccc(-c4cn[nH]c4)cc3)CCNCC2)cc1</t>
+          <t>NC1(Cc2ccc(Cl)cc2Cl)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>303.41</v>
+        <v>393.28</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>40.71</v>
+        <v>103.69</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9577D0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL425155</t>
+          <t>CHEMBL404554</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>502.61</v>
+        <v>569.74</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>105.16</v>
+        <v>83.48</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957760&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL402199</t>
+          <t>CHEMBL259141</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>NC1CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>NC1CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>527.63</v>
+        <v>217.28</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>105.72</v>
+        <v>70.83</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9576F0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL227381</t>
+          <t>CHEMBL1096290</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O=S(=O)(NCCNCCOCc1ccc(Cl)cc1)c1cccc2cnccc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(CN3CCCC3)cc21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O=S(=O)(NCCNCCOCc1ccc(Cl)cc1)c1cccc2cnccc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(CN3CCCC3)cc21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>419.93</v>
+        <v>395.47</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>80.31999999999999</v>
+        <v>119.12</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957680&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL261260</t>
+          <t>CHEMBL374742</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ncnc3[nH]cnc23)CC1</t>
+          <t>c1ccc(C2(c3ccc(-c4cn[nH]c4)cc3)CCNCC2)cc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ncnc3[nH]cnc23)CC1</t>
+          <t>c1ccc(C2(c3ccc(-c4cn[nH]c4)cc3)CCNCC2)cc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>218.26</v>
+        <v>303.41</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>83.72</v>
+        <v>40.71</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957610&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL223339</t>
+          <t>CHEMBL260670</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NC[C@H](c1ccc(Cl)cc1)c1ccc(-c2cn[nH]c2)cc1</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NC[C@H](c1ccc(Cl)cc1)c1ccc(-c2cn[nH]c2)cc1</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>297.79</v>
+        <v>523.64</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>54.7</v>
+        <v>83.48</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9575A0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL104264</t>
+          <t>CHEMBL425155</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O=S(=O)(NCCNC/C=C/c1ccc(Br)cc1)c1cccc2cnccc12</t>
+          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O=S(=O)(NCCNC/C=C/c1ccc(Br)cc1)c1cccc2cnccc12</t>
+          <t>c1ccc(-c2cc(-c3nn[nH]n3)cnc2-c2ccc(CNCc3ccc(-c4csnn4)cc3)cc2)cc1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>446.37</v>
+        <v>502.61</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>71.09</v>
+        <v>105.16</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9574C0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL180058</t>
+          <t>CHEMBL383541</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cn1nnc(-c2ccc3nc(-c4ccccc4)c(-c4ccc(CN5CCC(n6c(O)nc7ccccc76)CC5)cc4)nc3c2)n1</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cn1nnc(-c2ccc3nc(-c4ccccc4)c(-c4ccc(CN5CCC(n6c(O)nc7ccccc76)CC5)cc4)nc3c2)n1</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>593.7</v>
+        <v>370.46</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>110.67</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957370&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL367601</t>
+          <t>CHEMBL227381</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1ccc2[nH]c(C3CCN(Cc4ccc(-c5ncc(-c6nn[nH]n6)cc5-c5ccccc5)cc4)CC3)nc2c1</t>
+          <t>O=S(=O)(NCCNCCOCc1ccc(Cl)cc1)c1cccc2cnccc12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1ccc2[nH]c(C3CCN(Cc4ccc(-c5ncc(-c6nn[nH]n6)cc5-c5ccccc5)cc4)CC3)nc2c1</t>
+          <t>O=S(=O)(NCCNCCOCc1ccc(Cl)cc1)c1cccc2cnccc12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>526.65</v>
+        <v>419.93</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>99.27</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956F80&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL376726</t>
+          <t>CHEMBL261260</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc2cnccc12</t>
+          <t>NC1CCN(c2ncnc3[nH]cnc23)CC1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc2cnccc12</t>
+          <t>NC1CCN(c2ncnc3[nH]cnc23)CC1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>208.24</v>
+        <v>218.26</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>73.05</v>
+        <v>83.72</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956F10&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL188434</t>
+          <t>CHEMBL223339</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(CNC3CCNCC3)c21</t>
+          <t>NC[C@H](c1ccc(Cl)cc1)c1ccc(-c2cn[nH]c2)cc1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(CNC3CCNCC3)c21</t>
+          <t>NC[C@H](c1ccc(Cl)cc1)c1ccc(-c2cn[nH]c2)cc1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>342.41</v>
+        <v>297.79</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>119.71</v>
+        <v>54.7</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956E30&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL265451</t>
+          <t>CHEMBL104264</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ncnc3[nH]ncc23)CC1</t>
+          <t>O=S(=O)(NCCNC/C=C/c1ccc(Br)cc1)c1cccc2cnccc12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ncnc3[nH]ncc23)CC1</t>
+          <t>O=S(=O)(NCCNC/C=C/c1ccc(Br)cc1)c1cccc2cnccc12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>218.26</v>
+        <v>446.37</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>83.72</v>
+        <v>71.09</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CF680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9568F0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL264965</t>
+          <t>CHEMBL367601</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>Cc1ccc2[nH]c(C3CCN(Cc4ccc(-c5ncc(-c6nn[nH]n6)cc5-c5ccccc5)cc4)CC3)nc2c1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NC1CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>Cc1ccc2[nH]c(C3CCN(Cc4ccc(-c5ncc(-c6nn[nH]n6)cc5-c5ccccc5)cc4)CC3)nc2c1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>216.29</v>
+        <v>526.65</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94</v>
+        <v>99.27</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956880&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL1098938</t>
+          <t>CHEMBL227605</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,35 +2120,35 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)Cc3ccccc3)cc21</t>
+          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)Cc3ccccc3)cc21</t>
+          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>461.53</v>
+        <v>315.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>151.13</v>
+        <v>80.48</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956810&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL409503</t>
+          <t>CHEMBL252455</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,44 +2188,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nnc(N)s4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>356.86</v>
+        <v>485.64</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="n">
         <v>5</v>
       </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>83.72</v>
+        <v>102.5</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9566C0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL228756</t>
+          <t>CHEMBL376726</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,44 +2256,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)c2ccncc2)c[nH]1</t>
+          <t>NS(=O)(=O)c1cccc2cnccc12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)c2ccncc2)c[nH]1</t>
+          <t>NS(=O)(=O)c1cccc2cnccc12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>416.44</v>
+        <v>208.24</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>142</v>
+        <v>73.05</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3CFF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956570&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL603882</t>
+          <t>CHEMBL605326</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,32 +2324,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc3ccccc3c2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc3ccccc3c2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>357.46</v>
+        <v>390.49</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -2358,10 +2358,10 @@
         <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70.83</v>
+        <v>91.14</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D80B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956500&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL605410</t>
+          <t>CHEMBL188434</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,44 +2392,44 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c(C#N)[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(CNC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c(C#N)[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(CNC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>519.5700000000001</v>
+        <v>342.41</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>181.34</v>
+        <v>119.71</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956490&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL534916</t>
+          <t>CHEMBL265451</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,44 +2460,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CC1(C)CCCN(c2ccc(O)c(C(=O)c3ccc(C(=O)N[C@@H]4CCCNC[C@H]4NC(=O)c4ccncc4)cc3)c2)C1</t>
+          <t>NC1CCN(c2ncnc3[nH]ncc23)CC1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CC1(C)CCCN(c2ccc(O)c(C(=O)c3ccc(C(=O)N[C@@H]4CCCNC[C@H]4NC(=O)c4ccncc4)cc3)c2)C1</t>
+          <t>NC1CCN(c2ncnc3[nH]ncc23)CC1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>569.71</v>
+        <v>218.26</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>123.66</v>
+        <v>83.72</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9563B0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL228701</t>
+          <t>CHEMBL264965</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,44 +2528,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCCCC3)c[nH]1)C(=O)N2</t>
+          <t>NC1CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCCCC3)c[nH]1)C(=O)N2</t>
+          <t>NC1CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>422.49</v>
+        <v>216.29</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>132.35</v>
+        <v>57.94</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956340&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL254099</t>
+          <t>CHEMBL1098938</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)Cc3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)Cc3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>570.73</v>
+        <v>461.53</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
         <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>96.37</v>
+        <v>151.13</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D82E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9562D0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL252456</t>
+          <t>CHEMBL409503</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(=O)c4ccccc4N)cc3)nc2n1</t>
+          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(=O)c4ccccc4N)cc3)nc2n1</t>
+          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>505.65</v>
+        <v>356.86</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>93.79000000000001</v>
+        <v>83.72</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D83C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9561F0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL259967</t>
+          <t>CHEMBL228652</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cnccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cnccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>523.64</v>
+        <v>373.42</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>83.48</v>
+        <v>126.03</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956110&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL596990</t>
+          <t>CHEMBL228756</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NC1(C(=O)N2CCc3ccccc3C2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)c2ccncc2)c[nH]1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NC1(C(=O)N2CCc3ccccc3C2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)c2ccncc2)c[nH]1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>376.46</v>
+        <v>416.44</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="n">
         <v>5</v>
       </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>91.14</v>
+        <v>142</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D84A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F956030&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL523586</t>
+          <t>CHEMBL603882</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>NC1(Cc2ccc3ccccc3c2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>NC1(Cc2ccc3ccccc3c2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2883,29 +2883,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>473.37</v>
+        <v>357.46</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>83.8</v>
+        <v>70.83</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F955FC0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL594933</t>
+          <t>CHEMBL605410</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c(C#N)[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c(C#N)[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>464.53</v>
+        <v>519.5700000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
         <v>7</v>
@@ -2973,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="M37" t="n">
-        <v>118.64</v>
+        <v>181.34</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957DF0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL522857</t>
+          <t>CHEMBL534916</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
+          <t>CC1(C)CCCN(c2ccc(O)c(C(=O)c3ccc(C(=O)N[C@@H]4CCCNC[C@H]4NC(=O)c4ccncc4)cc3)c2)C1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
+          <t>CC1(C)CCCN(c2ccc(O)c(C(=O)c3ccc(C(=O)N[C@@H]4CCCNC[C@H]4NC(=O)c4ccncc4)cc3)c2)C1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,29 +3019,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>411.47</v>
+        <v>569.71</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>137.14</v>
+        <v>123.66</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957D80&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL444136</t>
+          <t>CHEMBL521658</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6cnccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6cnccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3087,29 +3087,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>540.63</v>
+        <v>425.49</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>116.34</v>
+        <v>137.14</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957D10&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL261540</t>
+          <t>CHEMBL226712</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>522.66</v>
+        <v>335.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>70.59</v>
+        <v>80.48</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957C30&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL3679634</t>
+          <t>CHEMBL228701</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N=c1ccc2nc(-c3ccc(C4(NC(=O)Cc5cccnc5)CCC4)cc3)c(-c3ccccc3)cc2n1C(N)=O</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCCCC3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N=c1ccc2nc(-c3ccc(C4(NC(=O)Cc5cccnc5)CCC4)cc3)c(-c3ccccc3)cc2n1C(N)=O</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCCCC3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,14 +3223,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>528.62</v>
+        <v>422.49</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
@@ -3239,50 +3239,24 @@
         <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>126.75</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>200</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL3707653</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Kinase Assay: Activated Akt isoforms and pleckstrin homology domain deletion constructs were assayed utilizing a GSK-derived biotinylated peptide substrate. The extend of peptide was determined by Homogeneous Time Resolved Fluorescence (HTRF) using a lanthanide chelate (Lance)-coupled monoclonal antibody specific for the phosphopeptide in combination with a streptavidin-linked allophycocyanin (SA-APC) fluorophore which will bind to the biotin moiety on the peptide.</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>132.35</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957BC0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3294,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL3137336</t>
+          <t>CHEMBL446134</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3302,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2ccc(F)c(F)c2)oc1Cl</t>
+          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2ccc(F)c(F)c2)oc1Cl</t>
+          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3317,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>429.25</v>
+        <v>541.66</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
         <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>86.08</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL4407364</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of human Akt2 by mobile shift assay</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.69</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957B50&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3388,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL379849</t>
+          <t>CHEMBL270847</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3396,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>O=C1/C(=C/c2ccccc2F)CNC/C1=C\c1ccccc1F</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>O=C1/C(=C/c2ccccc2F)CNC/C1=C\c1ccccc1F</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3411,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>311.33</v>
+        <v>528.62</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>720</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL2344121</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant AKT2 (unknown origin) by FRET-based Z'-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>108.38</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9578B0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3482,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL603675</t>
+          <t>CHEMBL182101</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3490,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
+          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
+          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3505,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>363.51</v>
+        <v>542.65</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>70.83</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>58</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL1072809</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta by radiometric filter binding assay</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>97.78</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957530&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3576,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL389176</t>
+          <t>CHEMBL253457</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3584,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NC(c1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NC(c1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3599,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>301.35</v>
+        <v>529.62</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>80.48</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>400</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL919346</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta by radiometric filter binding assay</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>96.61</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957450&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3670,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL228751</t>
+          <t>CHEMBL596990</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3678,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3ccccc3)c[nH]1)C(=O)N2</t>
+          <t>NC1(C(=O)N2CCc3ccccc3C2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3ccccc3)c[nH]1)C(=O)N2</t>
+          <t>NC1(C(=O)N2CCc3ccccc3C2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3693,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>344.37</v>
+        <v>376.46</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
         <v>2</v>
       </c>
-      <c r="J46" t="n">
-        <v>3</v>
-      </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
         <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>100.01</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>21</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL889499</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>91.14</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9573E0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3764,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL3703130</t>
+          <t>CHEMBL178468</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3772,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3nc4ccc(-c5ccccn5)cn4c3-c3ccccc3)cc2)CCC1</t>
+          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3nc4ccc(-c5ccccn5)cn4c3-c3ccccc3)cc2)CCC1</t>
+          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3787,20 +3631,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>416.53</v>
+        <v>533.6799999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
         <v>6</v>
@@ -3809,44 +3653,18 @@
         <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>462</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL3705585</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>TR-FRET Assay: For the assay 50 nl of a 100 fold concentrated solution of the test compound in DMSO was pipetted into a black low volume 384 well microtiter plate (Greiner Bio-One, Frickenhausen, Germany), 2 ul of a solution of Akt2 in assay buffer [50 mM TRIS/HCl pH 7.5, 5 mM MgCl2, 1 mM dithiothreitol, 0.02% (v/v) Triton X-100 (Sigma)] were added and the mixture was incubated for 15 min at 22 C. to allow prebinding of the test compounds to the enzyme before the start of the kinase reaction. Then the kinase reaction was started by the addition of 3 ul of a solution of adenosine-tri-phosphate (ATP, 16.7 uM=&gt;final conc. in the 5 ul assay volume is 10 uM) and substrate (1.67 uM=&gt;final conc. in the 5 ul assay volume is 1 uM) in assay buffer and the resulting mixture was incubated for a reaction time of 60 min at 22 C. The concentration of Akt2 in the assay was adjusted depending of the activity of the enzyme lot.</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>87.3</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957300&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3858,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL2012702</t>
+          <t>CHEMBL255360</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3866,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3881,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>493.84</v>
+        <v>528.62</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
         <v>7</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>6</v>
       </c>
-      <c r="K48" t="n">
-        <v>4</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3</v>
-      </c>
       <c r="M48" t="n">
-        <v>76.20999999999999</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>311</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL2014741</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>137.55</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957290&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3952,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL258696</t>
+          <t>CHEMBL523586</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3960,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1ccc2nc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc2c1</t>
+          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1ccc2nc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc2c1</t>
+          <t>NC[C@H](Cc1cccc(F)c1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3975,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>653.83</v>
+        <v>473.37</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
         <v>6</v>
       </c>
-      <c r="J49" t="n">
-        <v>11</v>
-      </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>99.15000000000001</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>212</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL937418</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.8</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957220&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4046,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL383264</t>
+          <t>CHEMBL594933</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4054,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4069,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>394.48</v>
+        <v>464.53</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
+        <v>7</v>
+      </c>
+      <c r="K50" t="n">
         <v>6</v>
       </c>
-      <c r="K50" t="n">
-        <v>5</v>
-      </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>76.81999999999999</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL861321</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2 at 5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>118.64</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9571B0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4140,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL608533</t>
+          <t>CHEMBL444136</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4148,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6cnccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6cnccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4163,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>570.65</v>
+        <v>540.63</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L51" t="n">
         <v>6</v>
       </c>
       <c r="M51" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>780</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1244720</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT2</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>116.34</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F957140&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
